--- a/userEdition/seed1.xlsx
+++ b/userEdition/seed1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\datosEloy\climatrade\userEdition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12446C3B-5920-49CD-A433-73AB82A1BD76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A4F248-09E8-4C84-97D8-30E6A4744AD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{A7D59B3C-C93D-4BD3-8C85-3B3391A4628F}"/>
+    <workbookView xWindow="15" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{A7D59B3C-C93D-4BD3-8C85-3B3391A4628F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -275,16 +275,6 @@
     <t>GenericStd_Geo</t>
   </si>
   <si>
-    <t>airTraffic.worldFlights
-moonSun.weekday
-moonSun.moonPhase
-FIFA.Rank
-music.tempo
-OECD.BCI
-OECD.CCI
-OECD.CLI</t>
-  </si>
-  <si>
     <t>GenericSentimentTerms</t>
   </si>
   <si>
@@ -342,6 +332,17 @@
 OECD - Europe
 NAFTA
 Major Five Asia</t>
+  </si>
+  <si>
+    <t>airTraffic.worldFlights
+moonSun.weekday
+moonSun.moonPhase
+moonSun.nightHours
+FIFA.Rank
+music.tempo
+OECD.BCI
+OECD.CCI
+OECD.CLI</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1012,9 @@
   </sheetPr>
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1037,16 +1040,16 @@
         <v>78</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>79</v>
@@ -1063,21 +1066,21 @@
         <v>50</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>68</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -1336,7 +1339,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="19"/>
       <c r="F18" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="6" t="s">
@@ -1419,7 +1422,7 @@
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="3"/>
@@ -1436,7 +1439,7 @@
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E24" s="19"/>
       <c r="F24" s="3"/>
@@ -1453,7 +1456,7 @@
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E25" s="19"/>
       <c r="F25" s="3"/>
@@ -1530,7 +1533,7 @@
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E30" s="19"/>
       <c r="F30" s="3"/>

--- a/userEdition/seed1.xlsx
+++ b/userEdition/seed1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\datosEloy\climatrade\userEdition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A4F248-09E8-4C84-97D8-30E6A4744AD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87447BB9-CA6E-4DE6-8167-00B3F15FA626}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{A7D59B3C-C93D-4BD3-8C85-3B3391A4628F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A7D59B3C-C93D-4BD3-8C85-3B3391A4628F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -287,33 +287,10 @@
     <t>GenericSearchTerms</t>
   </si>
   <si>
-    <t>copper(copper)</t>
-  </si>
-  <si>
     <t>gold(gold price)</t>
   </si>
   <si>
-    <t>crude()</t>
-  </si>
-  <si>
-    <t>bolzonaro()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USAgov(from:potus)
-putin(putin, from:kremlinrussia_E)
-china(china, jingpin)
-canada(from:canadianPM, trudeau)
-</t>
-  </si>
-  <si>
     <t>spain_stocks(inditex, bbva)</t>
-  </si>
-  <si>
-    <t>brexit()
-forex(forex)
-raw_materials(copper, gold, silver, natural gas)
-indexes(ibex, dax, ftse100, nikkei, nasdaq)
-bitcoin(bitcoin)</t>
   </si>
   <si>
     <t>Global
@@ -343,6 +320,29 @@
 OECD.BCI
 OECD.CCI
 OECD.CLI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USAgov(from:potus)
+putin(putin, from:kremlinrussia_E)
+china(china, jingpin)
+canada(from:canadianPM, trudeau, canada)
+</t>
+  </si>
+  <si>
+    <t>crude()</t>
+  </si>
+  <si>
+    <t>brexit()
+forex()
+raw_materials(copper, gold, silver, natural gas)
+indexes(ibex, dax, ftse100, nikkei, nasdaq)
+bitcoin()</t>
+  </si>
+  <si>
+    <t>copper()</t>
+  </si>
+  <si>
+    <t>bolzonaro()</t>
   </si>
 </sst>
 </file>
@@ -1012,24 +1012,24 @@
   </sheetPr>
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.1796875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="23.1796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="43.36328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.1796875" style="1" customWidth="1"/>
+    <col min="1" max="2" width="15.140625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="23.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="43.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="38" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.36328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.1796875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.08984375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.7265625" style="1"/>
+    <col min="8" max="8" width="18.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>64</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>53</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>50</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="18" t="s">
@@ -1080,10 +1080,10 @@
         <v>68</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
@@ -1100,7 +1100,7 @@
       </c>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -1134,7 +1134,7 @@
       </c>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1149,7 +1149,7 @@
       <c r="H6" s="6"/>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>54</v>
       </c>
@@ -1164,7 +1164,7 @@
       <c r="H7" s="6"/>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>1</v>
       </c>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>55</v>
       </c>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>0</v>
       </c>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>2</v>
       </c>
@@ -1230,7 +1230,7 @@
       <c r="H11" s="6"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>56</v>
       </c>
@@ -1245,7 +1245,7 @@
       <c r="H12" s="6"/>
       <c r="I12" s="13"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>57</v>
       </c>
@@ -1260,7 +1260,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>58</v>
       </c>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="I14" s="13"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>59</v>
       </c>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="I15" s="13"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>26</v>
       </c>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="I16" s="13"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>27</v>
       </c>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="I17" s="13"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>28</v>
       </c>
@@ -1339,7 +1339,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="19"/>
       <c r="F18" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="6" t="s">
@@ -1347,7 +1347,7 @@
       </c>
       <c r="I18" s="13"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>31</v>
       </c>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="I19" s="13"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>30</v>
       </c>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="I20" s="13"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>29</v>
       </c>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="I21" s="13"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>19</v>
       </c>
@@ -1413,7 +1413,7 @@
       <c r="H22" s="6"/>
       <c r="I22" s="13"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>33</v>
       </c>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="3"/>
@@ -1430,7 +1430,7 @@
       <c r="H23" s="6"/>
       <c r="I23" s="13"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>34</v>
       </c>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="3" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E24" s="19"/>
       <c r="F24" s="3"/>
@@ -1447,7 +1447,7 @@
       <c r="H24" s="6"/>
       <c r="I24" s="13"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>35</v>
       </c>
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E25" s="19"/>
       <c r="F25" s="3"/>
@@ -1464,7 +1464,7 @@
       <c r="H25" s="6"/>
       <c r="I25" s="13"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>36</v>
       </c>
@@ -1479,7 +1479,7 @@
       <c r="H26" s="6"/>
       <c r="I26" s="13"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>4</v>
       </c>
@@ -1494,7 +1494,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="13"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>5</v>
       </c>
@@ -1509,7 +1509,7 @@
       <c r="H28" s="6"/>
       <c r="I28" s="13"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>11</v>
       </c>
@@ -1524,7 +1524,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="13"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>20</v>
       </c>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E30" s="19"/>
       <c r="F30" s="3"/>
@@ -1541,7 +1541,7 @@
       <c r="H30" s="6"/>
       <c r="I30" s="13"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>12</v>
       </c>
@@ -1556,7 +1556,7 @@
       <c r="H31" s="6"/>
       <c r="I31" s="13"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>7</v>
       </c>
@@ -1571,7 +1571,7 @@
       <c r="H32" s="6"/>
       <c r="I32" s="13"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>8</v>
       </c>
@@ -1586,7 +1586,7 @@
       <c r="H33" s="6"/>
       <c r="I33" s="13"/>
     </row>
-    <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>32</v>
       </c>
@@ -1601,7 +1601,7 @@
       <c r="H34" s="8"/>
       <c r="I34" s="14"/>
     </row>
-    <row r="35" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="I2:I34"/>

--- a/userEdition/seed1.xlsx
+++ b/userEdition/seed1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\datosEloy\climatrade\userEdition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87447BB9-CA6E-4DE6-8167-00B3F15FA626}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF17744-264F-45AA-B1FE-7E081154ED2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A7D59B3C-C93D-4BD3-8C85-3B3391A4628F}"/>
   </bookViews>
@@ -311,8 +311,30 @@
 Major Five Asia</t>
   </si>
   <si>
+    <t xml:space="preserve">USAgov(from:potus)
+putin(putin, from:kremlinrussia_E)
+china(china, jingpin)
+canada(from:canadianPM, trudeau, canada)
+</t>
+  </si>
+  <si>
+    <t>crude()</t>
+  </si>
+  <si>
+    <t>brexit()
+forex()
+raw_materials(copper, gold, silver, natural gas)
+indexes(ibex, dax, ftse100, nikkei, nasdaq)
+bitcoin()</t>
+  </si>
+  <si>
+    <t>copper()</t>
+  </si>
+  <si>
+    <t>bolzonaro()</t>
+  </si>
+  <si>
     <t>airTraffic.worldFlights
-moonSun.weekday
 moonSun.moonPhase
 moonSun.nightHours
 FIFA.Rank
@@ -320,29 +342,6 @@
 OECD.BCI
 OECD.CCI
 OECD.CLI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USAgov(from:potus)
-putin(putin, from:kremlinrussia_E)
-china(china, jingpin)
-canada(from:canadianPM, trudeau, canada)
-</t>
-  </si>
-  <si>
-    <t>crude()</t>
-  </si>
-  <si>
-    <t>brexit()
-forex()
-raw_materials(copper, gold, silver, natural gas)
-indexes(ibex, dax, ftse100, nikkei, nasdaq)
-bitcoin()</t>
-  </si>
-  <si>
-    <t>copper()</t>
-  </si>
-  <si>
-    <t>bolzonaro()</t>
   </si>
 </sst>
 </file>
@@ -1012,8 +1011,8 @@
   </sheetPr>
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1066,15 +1065,15 @@
         <v>50</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>68</v>
@@ -1339,7 +1338,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="19"/>
       <c r="F18" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="6" t="s">
@@ -1422,7 +1421,7 @@
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="3"/>
@@ -1439,7 +1438,7 @@
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E24" s="19"/>
       <c r="F24" s="3"/>

--- a/userEdition/seed1.xlsx
+++ b/userEdition/seed1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\datosEloy\climatrade\userEdition\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JES\Documents\climatrade\userEdition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF17744-264F-45AA-B1FE-7E081154ED2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A84F08-5246-4647-B65B-192D9BD7C03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A7D59B3C-C93D-4BD3-8C85-3B3391A4628F}"/>
+    <workbookView xWindow="9060" yWindow="825" windowWidth="20145" windowHeight="13365" xr2:uid="{A7D59B3C-C93D-4BD3-8C85-3B3391A4628F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -339,6 +339,8 @@
 moonSun.nightHours
 FIFA.Rank
 music.tempo
+music.energy
+music.danceability
 OECD.BCI
 OECD.CCI
 OECD.CLI</t>
@@ -710,7 +712,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1011,11 +1013,11 @@
   </sheetPr>
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="15.140625" style="1" customWidth="1"/>
     <col min="3" max="4" width="23.140625" style="1" customWidth="1"/>

--- a/userEdition/seed1.xlsx
+++ b/userEdition/seed1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JES\Documents\climatrade\userEdition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A84F08-5246-4647-B65B-192D9BD7C03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF910B4C-1D68-4059-A51C-257BE60354EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9060" yWindow="825" windowWidth="20145" windowHeight="13365" xr2:uid="{A7D59B3C-C93D-4BD3-8C85-3B3391A4628F}"/>
+    <workbookView xWindow="3435" yWindow="870" windowWidth="27885" windowHeight="13365" xr2:uid="{A7D59B3C-C93D-4BD3-8C85-3B3391A4628F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="108">
   <si>
     <t>EURCAD</t>
   </si>
@@ -344,6 +344,48 @@
 OECD.BCI
 OECD.CCI
 OECD.CLI</t>
+  </si>
+  <si>
+    <t>Cities</t>
+  </si>
+  <si>
+    <t>Addresses</t>
+  </si>
+  <si>
+    <t>NewYork</t>
+  </si>
+  <si>
+    <t>New York City, US</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Paris, France</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>London, England</t>
+  </si>
+  <si>
+    <t>Beijing</t>
+  </si>
+  <si>
+    <t>Beijing, China</t>
+  </si>
+  <si>
+    <t>Madrid</t>
+  </si>
+  <si>
+    <t>Madrid, Spain</t>
+  </si>
+  <si>
+    <t>Tokyo</t>
+  </si>
+  <si>
+    <t>Tokyo, Japan</t>
   </si>
 </sst>
 </file>
@@ -382,7 +424,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -648,11 +690,89 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -694,6 +814,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1011,10 +1137,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,11 +1152,12 @@
     <col min="7" max="7" width="38" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.42578125" style="1" customWidth="1"/>
     <col min="9" max="9" width="23.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.7109375" style="1"/>
+    <col min="10" max="11" width="18.42578125" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>64</v>
       </c>
@@ -1058,8 +1185,14 @@
       <c r="I1" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>53</v>
       </c>
@@ -1083,8 +1216,14 @@
       <c r="I2" s="12" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
@@ -1100,8 +1239,14 @@
         <v>70</v>
       </c>
       <c r="I3" s="13"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -1117,8 +1262,14 @@
         <v>77</v>
       </c>
       <c r="I4" s="13"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -1134,8 +1285,14 @@
         <v>73</v>
       </c>
       <c r="I5" s="13"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1149,8 +1306,14 @@
       <c r="G6" s="13"/>
       <c r="H6" s="6"/>
       <c r="I6" s="13"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>54</v>
       </c>
@@ -1164,8 +1327,14 @@
       <c r="G7" s="13"/>
       <c r="H7" s="6"/>
       <c r="I7" s="13"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>1</v>
       </c>
@@ -1181,8 +1350,10 @@
         <v>66</v>
       </c>
       <c r="I8" s="13"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="23"/>
+      <c r="K8" s="24"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>55</v>
       </c>
@@ -1198,8 +1369,10 @@
         <v>75</v>
       </c>
       <c r="I9" s="13"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="23"/>
+      <c r="K9" s="24"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>0</v>
       </c>
@@ -1215,8 +1388,10 @@
         <v>70</v>
       </c>
       <c r="I10" s="13"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="23"/>
+      <c r="K10" s="24"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>2</v>
       </c>
@@ -1230,8 +1405,10 @@
       <c r="G11" s="13"/>
       <c r="H11" s="6"/>
       <c r="I11" s="13"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="23"/>
+      <c r="K11" s="24"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>56</v>
       </c>
@@ -1245,8 +1422,10 @@
       <c r="G12" s="13"/>
       <c r="H12" s="6"/>
       <c r="I12" s="13"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="23"/>
+      <c r="K12" s="24"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>57</v>
       </c>
@@ -1260,8 +1439,10 @@
       <c r="G13" s="13"/>
       <c r="H13" s="6"/>
       <c r="I13" s="13"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="23"/>
+      <c r="K13" s="24"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>58</v>
       </c>
@@ -1277,8 +1458,10 @@
         <v>75</v>
       </c>
       <c r="I14" s="13"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="23"/>
+      <c r="K14" s="24"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>59</v>
       </c>
@@ -1294,8 +1477,10 @@
         <v>70</v>
       </c>
       <c r="I15" s="13"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="23"/>
+      <c r="K15" s="24"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>26</v>
       </c>
@@ -1311,8 +1496,10 @@
         <v>74</v>
       </c>
       <c r="I16" s="13"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="23"/>
+      <c r="K16" s="24"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>27</v>
       </c>
@@ -1328,8 +1515,10 @@
         <v>67</v>
       </c>
       <c r="I17" s="13"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="23"/>
+      <c r="K17" s="24"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>28</v>
       </c>
@@ -1347,8 +1536,10 @@
         <v>69</v>
       </c>
       <c r="I18" s="13"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="23"/>
+      <c r="K18" s="24"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>31</v>
       </c>
@@ -1364,8 +1555,10 @@
         <v>71</v>
       </c>
       <c r="I19" s="13"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="23"/>
+      <c r="K19" s="24"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>30</v>
       </c>
@@ -1381,8 +1574,10 @@
         <v>76</v>
       </c>
       <c r="I20" s="13"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="23"/>
+      <c r="K20" s="24"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>29</v>
       </c>
@@ -1398,8 +1593,10 @@
         <v>72</v>
       </c>
       <c r="I21" s="13"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="23"/>
+      <c r="K21" s="24"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>19</v>
       </c>
@@ -1413,8 +1610,10 @@
       <c r="G22" s="13"/>
       <c r="H22" s="6"/>
       <c r="I22" s="13"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="23"/>
+      <c r="K22" s="24"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>33</v>
       </c>
@@ -1430,8 +1629,10 @@
       <c r="G23" s="13"/>
       <c r="H23" s="6"/>
       <c r="I23" s="13"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="23"/>
+      <c r="K23" s="24"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>34</v>
       </c>
@@ -1447,8 +1648,10 @@
       <c r="G24" s="13"/>
       <c r="H24" s="6"/>
       <c r="I24" s="13"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="23"/>
+      <c r="K24" s="24"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>35</v>
       </c>
@@ -1464,8 +1667,10 @@
       <c r="G25" s="13"/>
       <c r="H25" s="6"/>
       <c r="I25" s="13"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="23"/>
+      <c r="K25" s="24"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>36</v>
       </c>
@@ -1479,8 +1684,10 @@
       <c r="G26" s="13"/>
       <c r="H26" s="6"/>
       <c r="I26" s="13"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="23"/>
+      <c r="K26" s="24"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>4</v>
       </c>
@@ -1494,8 +1701,10 @@
       <c r="G27" s="13"/>
       <c r="H27" s="6"/>
       <c r="I27" s="13"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="23"/>
+      <c r="K27" s="24"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>5</v>
       </c>
@@ -1509,8 +1718,10 @@
       <c r="G28" s="13"/>
       <c r="H28" s="6"/>
       <c r="I28" s="13"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="23"/>
+      <c r="K28" s="24"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>11</v>
       </c>
@@ -1524,8 +1735,10 @@
       <c r="G29" s="13"/>
       <c r="H29" s="6"/>
       <c r="I29" s="13"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="23"/>
+      <c r="K29" s="24"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>20</v>
       </c>
@@ -1541,8 +1754,10 @@
       <c r="G30" s="13"/>
       <c r="H30" s="6"/>
       <c r="I30" s="13"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="23"/>
+      <c r="K30" s="24"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>12</v>
       </c>
@@ -1556,8 +1771,10 @@
       <c r="G31" s="13"/>
       <c r="H31" s="6"/>
       <c r="I31" s="13"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="23"/>
+      <c r="K31" s="24"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>7</v>
       </c>
@@ -1571,8 +1788,10 @@
       <c r="G32" s="13"/>
       <c r="H32" s="6"/>
       <c r="I32" s="13"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="23"/>
+      <c r="K32" s="24"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>8</v>
       </c>
@@ -1586,8 +1805,10 @@
       <c r="G33" s="13"/>
       <c r="H33" s="6"/>
       <c r="I33" s="13"/>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J33" s="23"/>
+      <c r="K33" s="24"/>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>32</v>
       </c>
@@ -1601,8 +1822,10 @@
       <c r="G34" s="14"/>
       <c r="H34" s="8"/>
       <c r="I34" s="14"/>
-    </row>
-    <row r="35" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="26"/>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="I2:I34"/>

--- a/userEdition/seed1.xlsx
+++ b/userEdition/seed1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JES\Documents\climatrade\userEdition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D1AC28-4C89-48E4-A9EB-2E11210E67AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34743B9B-C326-46CE-8106-96C2D47D3E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14205" yWindow="1320" windowWidth="23055" windowHeight="13365" xr2:uid="{A7D59B3C-C93D-4BD3-8C85-3B3391A4628F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{A7D59B3C-C93D-4BD3-8C85-3B3391A4628F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>^VIX</t>
   </si>
@@ -168,6 +168,12 @@
   </si>
   <si>
     <t>Events</t>
+  </si>
+  <si>
+    <t>GDELT.tone</t>
+  </si>
+  <si>
+    <t>GDELT.goldstein</t>
   </si>
 </sst>
 </file>
@@ -559,7 +565,9 @@
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -711,7 +719,9 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="D10" s="3" t="s">
         <v>30</v>
       </c>
@@ -723,7 +733,9 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">

--- a/userEdition/seed1.xlsx
+++ b/userEdition/seed1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JES\Documents\climatrade\userEdition\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\datosEloy\climatrade\userEdition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34743B9B-C326-46CE-8106-96C2D47D3E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F1ECC6-2C58-4A17-8B68-6E7ACBF9F495}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{A7D59B3C-C93D-4BD3-8C85-3B3391A4628F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A7D59B3C-C93D-4BD3-8C85-3B3391A4628F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,53 +30,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
-  <si>
-    <t>^VIX</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>FeatureName</t>
   </si>
   <si>
-    <t>FeatureCode</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>PlanetMoodFeatures</t>
-  </si>
-  <si>
-    <t>gold(gold price)</t>
-  </si>
-  <si>
-    <t>spain_stocks(inditex, bbva)</t>
-  </si>
-  <si>
-    <t>crude()</t>
-  </si>
-  <si>
-    <t>copper()</t>
-  </si>
-  <si>
     <t>Global</t>
   </si>
   <si>
     <t>USA</t>
   </si>
   <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>England</t>
-  </si>
-  <si>
     <t>China</t>
   </si>
   <si>
@@ -86,45 +50,9 @@
     <t>Spain</t>
   </si>
   <si>
-    <t>OECD - Total</t>
-  </si>
-  <si>
-    <t>G7</t>
-  </si>
-  <si>
-    <t>OECD + Major Six NME</t>
-  </si>
-  <si>
-    <t>Four Big European</t>
-  </si>
-  <si>
-    <t>OECD - Europe</t>
-  </si>
-  <si>
-    <t>NAFTA</t>
-  </si>
-  <si>
-    <t>Major Five Asia</t>
-  </si>
-  <si>
     <t>Std_Geo</t>
   </si>
   <si>
-    <t>brexit()</t>
-  </si>
-  <si>
-    <t>forex()</t>
-  </si>
-  <si>
-    <t>raw_materials(copper, gold, silver, natural gas)</t>
-  </si>
-  <si>
-    <t>indexes(ibex, dax, ftse100, nikkei, nasdaq)</t>
-  </si>
-  <si>
-    <t>bitcoin()</t>
-  </si>
-  <si>
     <t>VIX VOLATILITY</t>
   </si>
   <si>
@@ -155,12 +83,6 @@
     <t>Russia</t>
   </si>
   <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>^VVIX</t>
-  </si>
-  <si>
     <t>index.IAI</t>
   </si>
   <si>
@@ -174,6 +96,30 @@
   </si>
   <si>
     <t>GDELT.goldstein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macroeconomic_Anxiety(macroeconomic anxiety, inflation, deflation) </t>
+  </si>
+  <si>
+    <t>Market_Anxiety(market anxiety, short selling, volatility)</t>
+  </si>
+  <si>
+    <t>DebtCredit_Anxiety(debt anxiety, credit anxiety, default on debt, solvency, bankruptcy)</t>
+  </si>
+  <si>
+    <t>RefZero</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>stocks.^VIX</t>
+  </si>
+  <si>
+    <t>stocks.^VVIX</t>
+  </si>
+  <si>
+    <t>Features</t>
   </si>
 </sst>
 </file>
@@ -264,7 +210,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -566,109 +512,105 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="20.42578125" style="1" customWidth="1"/>
+    <col min="1" max="2" width="20.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="20.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
+      </c>
+      <c r="C2" s="3">
+        <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
         <v>5</v>
@@ -676,91 +618,79 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
-        <v>47</v>
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3">
+        <v>100</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
@@ -768,9 +698,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
@@ -778,9 +706,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
@@ -788,9 +714,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
@@ -798,9 +722,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
@@ -808,9 +730,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
@@ -818,9 +738,7 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
@@ -828,9 +746,7 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="F20" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/userEdition/seed1.xlsx
+++ b/userEdition/seed1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\datosEloy\climatrade\userEdition\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JES\Documents\climatrade\userEdition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F1ECC6-2C58-4A17-8B68-6E7ACBF9F495}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E71636-0EE8-4656-AA72-19B19E6F2673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A7D59B3C-C93D-4BD3-8C85-3B3391A4628F}"/>
+    <workbookView xWindow="11040" yWindow="900" windowWidth="26145" windowHeight="14475" xr2:uid="{A7D59B3C-C93D-4BD3-8C85-3B3391A4628F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -98,9 +98,6 @@
     <t>GDELT.goldstein</t>
   </si>
   <si>
-    <t xml:space="preserve">Macroeconomic_Anxiety(macroeconomic anxiety, inflation, deflation) </t>
-  </si>
-  <si>
     <t>Market_Anxiety(market anxiety, short selling, volatility)</t>
   </si>
   <si>
@@ -120,6 +117,9 @@
   </si>
   <si>
     <t>Features</t>
+  </si>
+  <si>
+    <t>Macroeconomic_Anxiety(macroeconomic anxiety, inflation, deflation)</t>
   </si>
 </sst>
 </file>
@@ -210,7 +210,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -512,10 +512,10 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="20.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>18</v>
@@ -549,13 +549,13 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3">
         <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
@@ -567,11 +567,11 @@
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
@@ -585,7 +585,7 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
@@ -625,7 +625,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">

--- a/userEdition/seed1.xlsx
+++ b/userEdition/seed1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JES\Documents\climatrade\userEdition\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\datosEloy\climatrade\userEdition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E71636-0EE8-4656-AA72-19B19E6F2673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF3B8B4-1F44-4000-BE6E-0DDA140A75C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11040" yWindow="900" windowWidth="26145" windowHeight="14475" xr2:uid="{A7D59B3C-C93D-4BD3-8C85-3B3391A4628F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A7D59B3C-C93D-4BD3-8C85-3B3391A4628F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -98,12 +98,6 @@
     <t>GDELT.goldstein</t>
   </si>
   <si>
-    <t>Market_Anxiety(market anxiety, short selling, volatility)</t>
-  </si>
-  <si>
-    <t>DebtCredit_Anxiety(debt anxiety, credit anxiety, default on debt, solvency, bankruptcy)</t>
-  </si>
-  <si>
     <t>RefZero</t>
   </si>
   <si>
@@ -119,7 +113,13 @@
     <t>Features</t>
   </si>
   <si>
-    <t>Macroeconomic_Anxiety(macroeconomic anxiety, inflation, deflation)</t>
+    <t>DAI1(/m/09jx2, /m/0d126 , /g/11fy2vtpp2, /m/07s_c)</t>
+  </si>
+  <si>
+    <t>DAI2(/m/0sxyn, /m/0ht7l, /m/09fld6, /m/05p0rrx)</t>
+  </si>
+  <si>
+    <t>DAI3(/m/0g1xs, /g/122dlh9k, /m/01hhz, /m/0gz_4, /g/1q6j8vbd8)</t>
   </si>
 </sst>
 </file>
@@ -210,7 +210,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -511,15 +511,14 @@
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="20.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="20.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="76.42578125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="20.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="8.7109375" style="1"/>
   </cols>
@@ -529,10 +528,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>18</v>
@@ -549,13 +548,13 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" s="3">
         <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
@@ -567,11 +566,11 @@
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
@@ -585,7 +584,7 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
@@ -625,7 +624,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">

--- a/userEdition/seed1.xlsx
+++ b/userEdition/seed1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\datosEloy\climatrade\userEdition\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JES\Documents\climatrade\userEdition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF3B8B4-1F44-4000-BE6E-0DDA140A75C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16003E33-9FBA-4DC2-B4F0-538BC715ADBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A7D59B3C-C93D-4BD3-8C85-3B3391A4628F}"/>
+    <workbookView xWindow="19245" yWindow="105" windowWidth="18735" windowHeight="14475" xr2:uid="{A7D59B3C-C93D-4BD3-8C85-3B3391A4628F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>FeatureName</t>
   </si>
@@ -120,6 +120,18 @@
   </si>
   <si>
     <t>DAI3(/m/0g1xs, /g/122dlh9k, /m/01hhz, /m/0gz_4, /g/1q6j8vbd8)</t>
+  </si>
+  <si>
+    <t>moonSunCalendar.moonPhase</t>
+  </si>
+  <si>
+    <t>moonSunCalendar.weekday</t>
+  </si>
+  <si>
+    <t>moonSunCalendar.yearWeek</t>
+  </si>
+  <si>
+    <t>moonSunCalendar.countryCode</t>
   </si>
 </sst>
 </file>
@@ -210,7 +222,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -511,11 +523,14 @@
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="76.42578125" style="1" customWidth="1"/>
     <col min="5" max="6" width="20.42578125" style="1" customWidth="1"/>
@@ -693,7 +708,9 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -701,7 +718,9 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -709,7 +728,9 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -717,7 +738,9 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>

--- a/userEdition/seed1.xlsx
+++ b/userEdition/seed1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JES\Documents\climatrade\userEdition\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\datosEloy\climatrade\userEdition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16003E33-9FBA-4DC2-B4F0-538BC715ADBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8414458E-D047-4576-9220-B6AB9A71699B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19245" yWindow="105" windowWidth="18735" windowHeight="14475" xr2:uid="{A7D59B3C-C93D-4BD3-8C85-3B3391A4628F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A7D59B3C-C93D-4BD3-8C85-3B3391A4628F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>FeatureName</t>
   </si>
@@ -132,6 +132,12 @@
   </si>
   <si>
     <t>moonSunCalendar.countryCode</t>
+  </si>
+  <si>
+    <t>stocks.GC=F</t>
+  </si>
+  <si>
+    <t>GOLD</t>
   </si>
 </sst>
 </file>
@@ -222,7 +228,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -524,10 +530,10 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -593,9 +599,11 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+      <c r="A4" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
@@ -609,7 +617,7 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -621,7 +629,7 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -633,7 +641,7 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -645,7 +653,7 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -657,7 +665,7 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -667,7 +675,7 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -677,11 +685,9 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="3">
-        <v>100</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -689,9 +695,11 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="C12" s="3">
+        <v>100</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -699,7 +707,7 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -709,7 +717,7 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -719,7 +727,7 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -729,7 +737,7 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -739,7 +747,7 @@
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -748,7 +756,9 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>

--- a/userEdition/seed1.xlsx
+++ b/userEdition/seed1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\datosEloy\climatrade\userEdition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8414458E-D047-4576-9220-B6AB9A71699B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDACB5C7-554F-48A5-8568-8335AA244EA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A7D59B3C-C93D-4BD3-8C85-3B3391A4628F}"/>
   </bookViews>
@@ -30,26 +30,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>FeatureName</t>
   </si>
   <si>
-    <t>Global</t>
-  </si>
-  <si>
     <t>USA</t>
   </si>
   <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
     <t>Std_Geo</t>
   </si>
   <si>
@@ -80,9 +68,6 @@
     <t>OECD.CLI</t>
   </si>
   <si>
-    <t>Russia</t>
-  </si>
-  <si>
     <t>index.IAI</t>
   </si>
   <si>
@@ -101,9 +86,6 @@
     <t>RefZero</t>
   </si>
   <si>
-    <t>India</t>
-  </si>
-  <si>
     <t>stocks.^VIX</t>
   </si>
   <si>
@@ -138,6 +120,21 @@
   </si>
   <si>
     <t>GOLD</t>
+  </si>
+  <si>
+    <t>OECD</t>
+  </si>
+  <si>
+    <t>GLOBAL</t>
+  </si>
+  <si>
+    <t>GER</t>
+  </si>
+  <si>
+    <t>ESP</t>
+  </si>
+  <si>
+    <t>CHN</t>
   </si>
 </sst>
 </file>
@@ -530,7 +527,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,123 +546,121 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3">
         <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -675,7 +670,7 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -685,7 +680,7 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -695,7 +690,7 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C12" s="3">
         <v>100</v>
@@ -707,7 +702,7 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -717,7 +712,7 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -727,7 +722,7 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -737,7 +732,7 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -747,7 +742,7 @@
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -757,7 +752,7 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>

--- a/userEdition/seed1.xlsx
+++ b/userEdition/seed1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\datosEloy\climatrade\userEdition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDACB5C7-554F-48A5-8568-8335AA244EA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676138E8-1833-4460-8637-F017BBA4A011}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A7D59B3C-C93D-4BD3-8C85-3B3391A4628F}"/>
+    <workbookView xWindow="7230" yWindow="2820" windowWidth="17055" windowHeight="11325" xr2:uid="{A7D59B3C-C93D-4BD3-8C85-3B3391A4628F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>FeatureName</t>
   </si>
@@ -135,6 +135,12 @@
   </si>
   <si>
     <t>CHN</t>
+  </si>
+  <si>
+    <t>ImputationInterval</t>
+  </si>
+  <si>
+    <t>OPEN</t>
   </si>
 </sst>
 </file>
@@ -524,24 +530,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.42578125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="20.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7109375" style="1"/>
+    <col min="4" max="4" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="76.42578125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="20.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -552,16 +557,19 @@
         <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -571,15 +579,16 @@
       <c r="C2" s="3">
         <v>30</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -587,15 +596,16 @@
         <v>19</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>29</v>
       </c>
@@ -603,15 +613,16 @@
         <v>28</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>5</v>
@@ -619,11 +630,12 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>6</v>
@@ -631,11 +643,12 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>7</v>
@@ -643,11 +656,12 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>8</v>
@@ -656,38 +670,48 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
         <v>12</v>
@@ -698,8 +722,9 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>15</v>
@@ -708,8 +733,9 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>16</v>
@@ -718,8 +744,9 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>24</v>
@@ -728,8 +755,9 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>25</v>
@@ -738,8 +766,9 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
         <v>26</v>
@@ -748,8 +777,9 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
         <v>27</v>
@@ -758,22 +788,25 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/userEdition/seed1.xlsx
+++ b/userEdition/seed1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\datosEloy\climatrade\userEdition\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JES\Documents\climatrade\userEdition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676138E8-1833-4460-8637-F017BBA4A011}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA82F337-6C16-42EE-BCE2-14F1D2F4BAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7230" yWindow="2820" windowWidth="17055" windowHeight="11325" xr2:uid="{A7D59B3C-C93D-4BD3-8C85-3B3391A4628F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{A7D59B3C-C93D-4BD3-8C85-3B3391A4628F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>FeatureName</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Std_Geo</t>
   </si>
   <si>
-    <t>VIX VOLATILITY</t>
-  </si>
-  <si>
     <t>Volatility</t>
   </si>
   <si>
@@ -119,9 +116,6 @@
     <t>stocks.GC=F</t>
   </si>
   <si>
-    <t>GOLD</t>
-  </si>
-  <si>
     <t>OECD</t>
   </si>
   <si>
@@ -141,6 +135,30 @@
   </si>
   <si>
     <t>OPEN</t>
+  </si>
+  <si>
+    <t>Gold volatility</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Nasdaq volatility</t>
+  </si>
+  <si>
+    <t>VIX 3 months</t>
+  </si>
+  <si>
+    <t>VIX volatility</t>
+  </si>
+  <si>
+    <t>stocks.^VIX3M</t>
+  </si>
+  <si>
+    <t>stocks.^VXN</t>
+  </si>
+  <si>
+    <t>stocks.^GVZ</t>
   </si>
 </sst>
 </file>
@@ -231,7 +249,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -530,11 +548,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -551,19 +571,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
@@ -571,34 +591,34 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3">
         <v>30</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
@@ -607,64 +627,70 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+      <c r="A5" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="B5" s="3" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="B6" s="3" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+      <c r="A7" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="B7" s="3" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -675,12 +701,10 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -688,12 +712,10 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -701,12 +723,10 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -714,12 +734,12 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="3">
-        <v>100</v>
-      </c>
-      <c r="D12" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -727,10 +747,12 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -738,10 +760,12 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -749,9 +773,11 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="C15" s="3">
+        <v>100</v>
+      </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -760,7 +786,7 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -771,7 +797,7 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -782,7 +808,7 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -792,7 +818,9 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -801,13 +829,107 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="22" orientation="portrait" r:id="rId1"/>

--- a/userEdition/seed1.xlsx
+++ b/userEdition/seed1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JES\Documents\climatrade\userEdition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA82F337-6C16-42EE-BCE2-14F1D2F4BAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED79121-9971-449F-84CA-5919695C273A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{A7D59B3C-C93D-4BD3-8C85-3B3391A4628F}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>FeatureName</t>
   </si>
@@ -159,6 +159,42 @@
   </si>
   <si>
     <t>stocks.^GVZ</t>
+  </si>
+  <si>
+    <t>stocks.^VIXhlVOL</t>
+  </si>
+  <si>
+    <t>stocks.^VVIXhlVOL</t>
+  </si>
+  <si>
+    <t>stocks.^VIX3MhlVOL</t>
+  </si>
+  <si>
+    <t>stocks.^VXNhlVOL</t>
+  </si>
+  <si>
+    <t>stocks.^GVZhlVOL</t>
+  </si>
+  <si>
+    <t>stocks.GC=FhlVOL</t>
+  </si>
+  <si>
+    <t>Volatility HighLow Day Volatility</t>
+  </si>
+  <si>
+    <t>VIX volatility HighLow Day Volatility</t>
+  </si>
+  <si>
+    <t>VIX 3 months HighLow Day Volatility</t>
+  </si>
+  <si>
+    <t>Nasdaq volatility HighLow Day Volatility</t>
+  </si>
+  <si>
+    <t>Gold volatility HighLow Day Volatility</t>
+  </si>
+  <si>
+    <t>Gold HighLow Day Volatility</t>
   </si>
 </sst>
 </file>
@@ -550,13 +586,11 @@
   </sheetPr>
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="1" bestFit="1" customWidth="1"/>
@@ -688,9 +722,11 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="B8" s="3" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -699,9 +735,11 @@
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+      <c r="A9" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="B9" s="3" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -710,9 +748,11 @@
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="A10" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="B10" s="3" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -721,9 +761,11 @@
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
+      <c r="A11" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="B11" s="3" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -732,27 +774,27 @@
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+      <c r="A12" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="B12" s="3" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="A13" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="B13" s="3" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -760,12 +802,10 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -773,11 +813,9 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="3">
-        <v>100</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -786,7 +824,7 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -797,7 +835,7 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -808,10 +846,12 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -819,10 +859,12 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -830,10 +872,12 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -841,9 +885,11 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="C21" s="3">
+        <v>100</v>
+      </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -851,7 +897,9 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -860,7 +908,9 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -869,7 +919,9 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -878,7 +930,9 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -887,7 +941,9 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -896,7 +952,9 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>

--- a/userEdition/seed1.xlsx
+++ b/userEdition/seed1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JES\Documents\climatrade\userEdition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED79121-9971-449F-84CA-5919695C273A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D051B8-814B-4124-AD79-7EA1F31D3806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{A7D59B3C-C93D-4BD3-8C85-3B3391A4628F}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
   <si>
     <t>FeatureName</t>
   </si>
@@ -195,6 +195,18 @@
   </si>
   <si>
     <t>Gold HighLow Day Volatility</t>
+  </si>
+  <si>
+    <t>S&amp;P 500</t>
+  </si>
+  <si>
+    <t>S&amp;P 500 HighLow Day Volatility</t>
+  </si>
+  <si>
+    <t>stocks.^GSPC</t>
+  </si>
+  <si>
+    <t>stocks.^GSPChlVOL</t>
   </si>
 </sst>
 </file>
@@ -233,7 +245,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -256,17 +268,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,7 +610,9 @@
   </sheetPr>
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -722,11 +748,11 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>49</v>
+      <c r="A8" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -736,10 +762,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -749,10 +775,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -762,10 +788,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -775,10 +801,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -788,10 +814,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -800,9 +826,11 @@
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
+      <c r="A14" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="B14" s="3" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -811,9 +839,11 @@
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="B15" s="3" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -824,7 +854,7 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -835,7 +865,7 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -846,12 +876,10 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -859,12 +887,10 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -872,7 +898,7 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
@@ -885,12 +911,12 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="3">
-        <v>100</v>
-      </c>
-      <c r="D21" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -898,10 +924,12 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -909,9 +937,11 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="C23" s="3">
+        <v>100</v>
+      </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -920,7 +950,7 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -931,7 +961,7 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -942,7 +972,7 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -953,7 +983,7 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -963,7 +993,9 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -972,7 +1004,9 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
